--- a/results/FrequencyTables/26990633_LTR-T.xlsx
+++ b/results/FrequencyTables/26990633_LTR-T.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.111111111111111</v>
+        <v>0.105608157319738</v>
       </c>
       <c r="C2">
-        <v>0.252525252525253</v>
+        <v>0.235979606700655</v>
       </c>
       <c r="D2">
-        <v>0.101010101010101</v>
+        <v>0.0852148579752367</v>
       </c>
       <c r="E2">
-        <v>0.808080808080808</v>
+        <v>0.771303714493809</v>
       </c>
       <c r="F2">
-        <v>0.131313131313131</v>
+        <v>0.159504734158776</v>
       </c>
       <c r="G2">
-        <v>0.777777777777778</v>
+        <v>0.651857246904588</v>
       </c>
       <c r="H2">
-        <v>0.232323232323232</v>
+        <v>0.300072833211945</v>
       </c>
       <c r="I2">
-        <v>0.757575757575758</v>
+        <v>0.775673707210488</v>
       </c>
       <c r="J2">
-        <v>0.0101010101010101</v>
+        <v>0.0305899490167516</v>
       </c>
       <c r="K2">
-        <v>0.818181818181818</v>
+        <v>0.777130371449381</v>
       </c>
       <c r="L2">
-        <v>0.929292929292929</v>
+        <v>0.91332847778587</v>
       </c>
       <c r="M2">
-        <v>0.0101010101010101</v>
+        <v>0.0160233066278223</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0320466132556446</v>
       </c>
       <c r="O2">
-        <v>0.242424242424242</v>
+        <v>0.353241077931537</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0101966496722505</v>
       </c>
       <c r="Q2">
-        <v>0.0101010101010101</v>
+        <v>0.0517115804806992</v>
       </c>
       <c r="R2">
-        <v>0.94949494949495</v>
+        <v>0.937363437727604</v>
       </c>
       <c r="S2">
-        <v>0.0101010101010101</v>
+        <v>0.0546249089584851</v>
       </c>
       <c r="T2">
-        <v>0.686868686868687</v>
+        <v>0.599417334304443</v>
       </c>
       <c r="U2">
-        <v>0.191919191919192</v>
+        <v>0.191551347414421</v>
       </c>
       <c r="V2">
-        <v>0.0404040404040404</v>
+        <v>0.0786598689002185</v>
       </c>
       <c r="W2">
-        <v>0.0707070707070707</v>
+        <v>0.0830298616168973</v>
       </c>
       <c r="X2">
-        <v>0.121212121212121</v>
+        <v>0.117989803350328</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.888888888888889</v>
+        <v>0.836125273124545</v>
       </c>
       <c r="C3">
-        <v>0.0505050505050505</v>
+        <v>0.0662782228696285</v>
       </c>
       <c r="D3">
-        <v>0.0101010101010101</v>
+        <v>0.0466132556445739</v>
       </c>
       <c r="E3">
-        <v>0.131313131313131</v>
+        <v>0.155134741442098</v>
       </c>
       <c r="F3">
-        <v>0.0505050505050505</v>
+        <v>0.0633648943918427</v>
       </c>
       <c r="G3">
-        <v>0.0505050505050505</v>
+        <v>0.0436999271667881</v>
       </c>
       <c r="H3">
-        <v>0.121212121212121</v>
+        <v>0.0968681718863802</v>
       </c>
       <c r="I3">
-        <v>0.171717171717172</v>
+        <v>0.124544792425346</v>
       </c>
       <c r="J3">
-        <v>0.0505050505050505</v>
+        <v>0.0356882738528769</v>
       </c>
       <c r="K3">
-        <v>0.0101010101010101</v>
+        <v>0.0422432629278951</v>
       </c>
       <c r="L3">
-        <v>0.0101010101010101</v>
+        <v>0.0247632920611799</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0538965768390386</v>
       </c>
       <c r="N3">
-        <v>0.0505050505050505</v>
+        <v>0.0487982520029133</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00509832483612527</v>
       </c>
       <c r="P3">
-        <v>0.171717171717172</v>
+        <v>0.163146394756009</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00582665695557174</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.00145666423889294</v>
       </c>
       <c r="S3">
-        <v>0.171717171717172</v>
+        <v>0.225054624908958</v>
       </c>
       <c r="T3">
-        <v>0.0303030303030303</v>
+        <v>0.0269482884195193</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0400582665695557</v>
       </c>
       <c r="V3">
-        <v>0.0606060606060606</v>
+        <v>0.0852148579752367</v>
       </c>
       <c r="W3">
-        <v>0.0202020202020202</v>
+        <v>0.0772032046613256</v>
       </c>
       <c r="X3">
-        <v>0.0606060606060606</v>
+        <v>0.0728332119446468</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00728332119446468</v>
       </c>
       <c r="C4">
-        <v>0.262626262626263</v>
+        <v>0.412964311726147</v>
       </c>
       <c r="D4">
-        <v>0.888888888888889</v>
+        <v>0.823743627093955</v>
       </c>
       <c r="E4">
-        <v>0.0606060606060606</v>
+        <v>0.0626365622723962</v>
       </c>
       <c r="F4">
-        <v>0.808080808080808</v>
+        <v>0.763292061179898</v>
       </c>
       <c r="G4">
-        <v>0.0404040404040404</v>
+        <v>0.175528040786599</v>
       </c>
       <c r="H4">
-        <v>0.646464646464647</v>
+        <v>0.554989075018208</v>
       </c>
       <c r="I4">
-        <v>0.0707070707070707</v>
+        <v>0.0750182083029862</v>
       </c>
       <c r="J4">
-        <v>0.939393939393939</v>
+        <v>0.92571012381646</v>
       </c>
       <c r="K4">
-        <v>0.121212121212121</v>
+        <v>0.106336489439184</v>
       </c>
       <c r="L4">
-        <v>0.0505050505050505</v>
+        <v>0.0393299344501093</v>
       </c>
       <c r="M4">
-        <v>0.98989898989899</v>
+        <v>0.909686817188638</v>
       </c>
       <c r="N4">
-        <v>0.0505050505050505</v>
+        <v>0.0626365622723962</v>
       </c>
       <c r="O4">
-        <v>0.757575757575758</v>
+        <v>0.640932265112891</v>
       </c>
       <c r="P4">
-        <v>0.0101010101010101</v>
+        <v>0.0597232337946103</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.000728332119446468</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.032774945375091</v>
       </c>
       <c r="S4">
-        <v>0.818181818181818</v>
+        <v>0.718135469774217</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0138383102694829</v>
       </c>
       <c r="U4">
-        <v>0.797979797979798</v>
+        <v>0.753823743627094</v>
       </c>
       <c r="V4">
-        <v>0.0909090909090909</v>
+        <v>0.0990531682447196</v>
       </c>
       <c r="W4">
-        <v>0.909090909090909</v>
+        <v>0.785870356882739</v>
       </c>
       <c r="X4">
-        <v>0.808080808080808</v>
+        <v>0.767662053896577</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0509832483612527</v>
       </c>
       <c r="C5">
-        <v>0.434343434343434</v>
+        <v>0.284049526584122</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0444282592862345</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.010924981791697</v>
       </c>
       <c r="F5">
-        <v>0.0101010101010101</v>
+        <v>0.0131099781500364</v>
       </c>
       <c r="G5">
-        <v>0.131313131313131</v>
+        <v>0.128914785142025</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0473415877640204</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0247632920611799</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00801165331391114</v>
       </c>
       <c r="K5">
-        <v>0.0505050505050505</v>
+        <v>0.0742898761835397</v>
       </c>
       <c r="L5">
-        <v>0.0101010101010101</v>
+        <v>0.0225782957028405</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0196649672250546</v>
       </c>
       <c r="N5">
-        <v>0.898989898989899</v>
+        <v>0.856518572469046</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.818181818181818</v>
+        <v>0.766205389657684</v>
       </c>
       <c r="Q5">
-        <v>0.98989898989899</v>
+        <v>0.941005098324836</v>
       </c>
       <c r="R5">
-        <v>0.0505050505050505</v>
+        <v>0.0276766205389658</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.0021849963583394</v>
       </c>
       <c r="T5">
-        <v>0.282828282828283</v>
+        <v>0.359796067006555</v>
       </c>
       <c r="U5">
-        <v>0.0101010101010101</v>
+        <v>0.0145666423889294</v>
       </c>
       <c r="V5">
-        <v>0.808080808080808</v>
+        <v>0.737072104879825</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0531682447195921</v>
       </c>
       <c r="X5">
-        <v>0.0101010101010101</v>
+        <v>0.0407865986890022</v>
       </c>
     </row>
   </sheetData>
